--- a/doc/ue_replication.xlsx
+++ b/doc/ue_replication.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B310ACE6-3E46-4EB5-A36C-F0DC1DD3B815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED411EC2-D02C-4D88-816C-959CC77A450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="879" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ReplicationGraph" sheetId="2" r:id="rId2"/>
-    <sheet name="以UCharacterMovementComponent举例" sheetId="3" r:id="rId3"/>
+    <sheet name="描述" sheetId="1" r:id="rId1"/>
+    <sheet name="UNetConnection" sheetId="6" r:id="rId2"/>
+    <sheet name="UActorChannel" sheetId="5" r:id="rId3"/>
+    <sheet name="ReplicationGraph" sheetId="2" r:id="rId4"/>
+    <sheet name="UPackageMapClient " sheetId="8" r:id="rId5"/>
+    <sheet name=" FObjectReplicator " sheetId="4" r:id="rId6"/>
+    <sheet name="FRepLayout" sheetId="9" r:id="rId7"/>
+    <sheet name="ClassReps" sheetId="10" r:id="rId8"/>
+    <sheet name="FRepState" sheetId="11" r:id="rId9"/>
+    <sheet name="FRepChangelistState" sheetId="12" r:id="rId10"/>
+    <sheet name="以UCharacterMovementComponent举例" sheetId="3" r:id="rId11"/>
+    <sheet name="Bunch格式分析" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="236">
   <si>
     <t>数据发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +135,1026 @@
   </si>
   <si>
     <t>后续调用，直到创建Bunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(transient, customConstructor)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UActorChannel : public UChannel</t>
+  </si>
+  <si>
+    <t>// Variables.</t>
+  </si>
+  <si>
+    <t>UPROPERTY()</t>
+  </si>
+  <si>
+    <t>AActor* Actor;</t>
+  </si>
+  <si>
+    <t>// Actor this corresponds to.</t>
+  </si>
+  <si>
+    <t>FNetworkGUID</t>
+  </si>
+  <si>
+    <t>ActorNetGUID;</t>
+  </si>
+  <si>
+    <t>// Actor GUID (useful when we don't have the actor resolved yet). Currently only valid on clients.</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FObjectReplicator&gt; ActorReplicator;</t>
+  </si>
+  <si>
+    <t>TMap&lt; UObject*, TSharedRef&lt; FObjectReplicator &gt; &gt; ReplicationMap;</t>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(customConstructor, Abstract, MinimalAPI, transient, config=Engine)</t>
+  </si>
+  <si>
+    <t>class UNetConnection : public UPlayer</t>
+  </si>
+  <si>
+    <t>TArray&lt;UChannel*&gt;</t>
+  </si>
+  <si>
+    <t>连接上的所有通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** @todo document */</t>
+  </si>
+  <si>
+    <t>TArray&lt;class UChannel*&gt; OpenChannels;</t>
+  </si>
+  <si>
+    <t>MaxChannelSize = CVarMaxChannelSize.GetValueOnAnyThread();</t>
+  </si>
+  <si>
+    <t>Channels.AddDefaulted(MaxChannelSize);</t>
+  </si>
+  <si>
+    <t>！！！初始化channelsize，默认是32767；默认都是NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个默认是：ControlChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个默认是：VoiceChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面的都是:ActorChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端收到消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>Connection-&gt;ReceivedRawPacket((uint8*)ReceivedPacket.DataView.GetData(), ReceivedPacket.DataView.NumBytes());</t>
+  </si>
+  <si>
+    <t>发给具体的Connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UIpConnection::ReceivedRawPacket(void* Data, int32 Count)</t>
+  </si>
+  <si>
+    <t>Super::ReceivedRawPacket(Data, Count);</t>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedRawPacket( void* InData, int32 Count )</t>
+  </si>
+  <si>
+    <t>if (Handler.IsValid())</t>
+  </si>
+  <si>
+    <t>const ProcessedPacket UnProcessedPacket = Handler-&gt;Incoming(Data, Count);</t>
+  </si>
+  <si>
+    <t>不属于的他的不处理，继续往下走-这里面仅处理握手相关处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先交给Handler 去处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceivedPacket(Reader);</t>
+  </si>
+  <si>
+    <t>真实消息包处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedPacket( FBitReader&amp; Reader, bool bIsReinjectedPacket)</t>
+  </si>
+  <si>
+    <t>！！！这个之前的数据是packet，这个里面需要解成Bunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断的从Packet取出InBunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channels;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据Bunch里面的Bunch.ChIndex找到Connection::Channels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不为空则直接处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果为空则先创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel = CreateChannelByName( Bunch.ChName, EChannelCreateFlags::None, Bunch.ChIndex );</t>
+  </si>
+  <si>
+    <t>通过ChName和ChIndex创建Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index表示在Connection::Channels中的位置，而ChName表示Channel类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel-&gt;ReceivedRawBunch( Bunch, bLocalSkipAck ); //warning: May destroy channel.</t>
+  </si>
+  <si>
+    <t>消息包处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FRepLayout : public FGCObject, public TSharedFromThis&lt;FRepLayout&gt;</t>
+  </si>
+  <si>
+    <t>SerializeNewActor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerializeObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternalWriteObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternalLoadObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步执行器</t>
+  </si>
+  <si>
+    <t>序列化Uobject需要生成一个对应的NetGUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络Bunch中序列化和反序列化Uobject和Uactor的类；对于UOBject和Actor类来说，就是同步对象的基础信息，没有属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含属性！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器同步处理流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 UNetDriver::ServerReplicateActors(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>// Get a sorted list of actors for this connection</t>
+  </si>
+  <si>
+    <t>const int32 FinalSortedCount = ServerReplicateActors_PrioritizeActors( Connection, ConnectionViewers, ConsiderList, bCPUSaturated, PriorityList, PriorityActors );</t>
+  </si>
+  <si>
+    <t>// Process the sorted list of actors for this connection</t>
+  </si>
+  <si>
+    <t>const int32 LastProcessedActor = ServerReplicateActors_ProcessPrioritizedActors( Connection, ConnectionViewers, PriorityActors, FinalSortedCount, Updated );</t>
+  </si>
+  <si>
+    <t>void UNetDriver::TickFlush(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>if (IsServer() &amp;&amp; ClientConnections.Num() &gt; 0 &amp;&amp; !bSkipServerReplicateActors)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 Updated = ServerReplicateActors( DeltaSeconds );</t>
+  </si>
+  <si>
+    <t>序列化Actor分为静态和动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果Actor是已经加载到地图了，或者是CDO对象，或者是原生的对象，则它是静态的对象</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果是静态的对象，序列化的过程，则不需要序列化三维信息，但是需要序列化其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Outer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GUID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PathName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。因为客户端需要找到该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UObject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绑定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NetGUID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（因此就通过其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Outer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和自身的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PathName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来找到该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>UObject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果是动态的对象的话，则不需要其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Outer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GUID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和路径。而是通过一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Archetype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并通过序列化一些基本的三维信息和速度信息来在客户端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Spawn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Archetype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并赋予它一些三维信息和速度，使它和原来的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看起来一模一样。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用远程RPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UObject::ProcessEvent( UFunction* Function, void* Parms )</t>
+  </si>
+  <si>
+    <t>int32 FunctionCallspace = GetFunctionCallspace(Function, NULL);</t>
+  </si>
+  <si>
+    <t>if (FunctionCallspace &amp; FunctionCallspace::Remote)</t>
+  </si>
+  <si>
+    <t>CallRemoteFunction(Function, Parms, NULL, NULL);</t>
+  </si>
+  <si>
+    <t>bool AActor::CallRemoteFunction( UFunction* Function, void* Parameters, FOutParmRec* OutParms, FFrame* Stack )</t>
+  </si>
+  <si>
+    <t>for (FNamedNetDriver&amp; Driver : Context-&gt;ActiveNetDrivers)</t>
+  </si>
+  <si>
+    <t>if (Driver.NetDriver != nullptr &amp;&amp; Driver.NetDriver-&gt;ShouldReplicateFunction(this, Function))</t>
+  </si>
+  <si>
+    <t>Driver.NetDriver-&gt;ProcessRemoteFunction(this, Function, Parameters, OutParms, Stack, nullptr);</t>
+  </si>
+  <si>
+    <t>bProcessed = true;</t>
+  </si>
+  <si>
+    <t>virtual void UNetDriver::ProcessRemoteFunction(class AActor* Actor, class UFunction* Function, void* Parameters, struct FOutParmRec* OutParms, struct FFrame* Stack, class UObject* SubObject = nullptr );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection = Actor-&gt;GetNetConnection();</t>
+  </si>
+  <si>
+    <t>if (Connection)</t>
+  </si>
+  <si>
+    <t>InternalProcessRemoteFunction(Actor, SubObject, Connection, Function, Parameters, OutParms, Stack, bIsServer);</t>
+  </si>
+  <si>
+    <t>void UNetDriver::InternalProcessRemoteFunction(AActor* Actor,UObject* SubObject,UNetConnection* Connection,UFunction* Function,void* Parms,FOutParmRec* OutParms,FFrame* Stack,const bool bIsServer)</t>
+  </si>
+  <si>
+    <t>InternalProcessRemoteFunctionPrivate(Actor, SubObject, Connection, Function, Parms, OutParms, Stack, bIsServer, UnusedFlags);</t>
+  </si>
+  <si>
+    <t>void UNetDriver::InternalProcessRemoteFunctionPrivate(AActor* Actor,UObject* SubObject,UNetConnection* Connection,UFunction* Function,void* Parms,FOutParmRec* OutParms,FFrame* Stack,const bool bIsServer,EProcessRemoteFunctionFlags&amp; Flags)</t>
+  </si>
+  <si>
+    <t>UObject* TargetObj = SubObject ? SubObject : Actor;</t>
+  </si>
+  <si>
+    <t>const FClassNetCache* ClassCache = NetCache-&gt;GetClassNetCache( TargetObj-&gt;GetClass() );</t>
+  </si>
+  <si>
+    <t>这个类内部会调用CLASS的SetUpRuntimeReplicationData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有同步的属性和RPC函数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class-&gt;SetUpRuntimeReplicationData();</t>
+  </si>
+  <si>
+    <t>调用CLASS的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有属性和函数，找到含有CPF_Net的Property和Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存到CLASS的ClassReps和NetFields变量中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FFieldNetCache* FieldCache = ClassCache-&gt;GetFromField(Function);</t>
+  </si>
+  <si>
+    <t>找到对应的Function函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UActorChannel* Ch = Connection-&gt;FindActorChannelRef(Actor);</t>
+  </si>
+  <si>
+    <t>找到Actor对应的Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!Ch)</t>
+  </si>
+  <si>
+    <t>没有则新创建一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch = Cast&lt;UActorChannel&gt;(Connection-&gt;CreateChannelByName(NAME_Actor, EChannelCreateFlags::OpenedLocally));</t>
+  </si>
+  <si>
+    <t>if (bIsServer)</t>
+  </si>
+  <si>
+    <t>以下操作也只有Server模式下才会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch-&gt;SetChannelActor(Actor, ESetChannelActorFlags::None);</t>
+  </si>
+  <si>
+    <t>！！！客户端模式何时创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会创建TSharedPtr&lt;FObjectReplicator&gt; ActorReplicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorReplicator = FindOrCreateReplicator(Actor);</t>
+  </si>
+  <si>
+    <t>内部会创建ActorReplicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步属性表，包含类内部需要同步的所有属性信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const TSharedPtr&lt;const FRepLayout&gt; RepLayout = GetObjectClassRepLayout(Object-&gt;GetClass());</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt; FReplicationChangelistMgr &gt; UNetDriver::GetReplicationChangeListMgr( UObject* Object )</t>
+  </si>
+  <si>
+    <t>获取类对应的Reqlayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FRepLayout&gt; UNetDriver::GetObjectClassRepLayout( UClass * Class )</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FRepLayout&gt;* RepLayoutPtr = RepLayoutMap.Find(Class);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (!RepLayoutPtr) </t>
+  </si>
+  <si>
+    <t>ECreateRepLayoutFlags Flags = MaySendProperties() ? ECreateRepLayoutFlags::MaySendProperties : ECreateRepLayoutFlags::None;</t>
+  </si>
+  <si>
+    <t>return *RepLayoutPtr;</t>
+  </si>
+  <si>
+    <t>获取或创建类对应的Reqlayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!从UNetDriver内部的ReqLayoutMap查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没找到就创建新的，注意这个创建的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RepLayoutPtr = &amp;RepLayoutMap.Add(Class, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FRepLayout::CreateFromClass(Class, ServerConnection, Flags)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FRepLayout&gt; FRepLayout::CreateFromClass(</t>
+  </si>
+  <si>
+    <t>UClass* InClass,</t>
+  </si>
+  <si>
+    <t>const UNetConnection* ServerConnection,</t>
+  </si>
+  <si>
+    <t>const ECreateRepLayoutFlags CreateFlags)</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FRepLayout&gt; RepLayout = MakeShareable&lt;FRepLayout&gt;(new FRepLayout());</t>
+  </si>
+  <si>
+    <t>RepLayout-&gt;InitFromClass(InClass, ServerConnection, CreateFlags);</t>
+  </si>
+  <si>
+    <t>return RepLayout;</t>
+  </si>
+  <si>
+    <t>！！！内部就是和对象对应的CLASS内部的ClassReps对应起来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FRepLayout::InitFromClass(</t>
+  </si>
+  <si>
+    <t>UClass* InObjectClass,</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_RepLayout_InitFromObjectClass);</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_UOBJECT(ObjectClass, InObjectClass);</t>
+  </si>
+  <si>
+    <t>const bool bIsPushModelEnabled = IS_PUSH_MODEL_ENABLED();</t>
+  </si>
+  <si>
+    <t>const bool bIsObjectActor = InObjectClass-&gt;IsChildOf(AActor::StaticClass());</t>
+  </si>
+  <si>
+    <t>if (bIsObjectActor)</t>
+  </si>
+  <si>
+    <t>Flags |= ERepLayoutFlags::IsActor;</t>
+  </si>
+  <si>
+    <t>int32 RelativeHandle = 0;</t>
+  </si>
+  <si>
+    <t>int32 LastOffset = INDEX_NONE;</t>
+  </si>
+  <si>
+    <t>int32 HighestCustomDeltaRepIndex = INDEX_NONE;</t>
+  </si>
+  <si>
+    <t>TMap&lt;int32, TArray&lt;FRepLayoutCmd&gt;&gt; TempNetSerializeLayouts;</t>
+  </si>
+  <si>
+    <t>InObjectClass-&gt;SetUpRuntimeReplicationData();</t>
+  </si>
+  <si>
+    <t>Parents.Empty(InObjectClass-&gt;ClassReps.Num());</t>
+  </si>
+  <si>
+    <t>！！！CLASS里面的ClassReps代表属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！CLASS里面的NetFields代表RPC函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！先调用对象类的setup函数，收集需要同步的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个类对应一个：存于UNetDriver::ReqLayoutMap中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的属性同步表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC函数同步表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个类一个变量，存在于UNetDriver::ReqLayoutMap中，KEY为UCLASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一个RPC函数一个，存在于UNetDriver::RepLayoutMap中，KEY为Ufunction </t>
+  </si>
+  <si>
+    <t>FRepLayout::CreateFromClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRepLayout::CreateFromFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRepLayout::CreateFromStruct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应不同的构造函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！就是把Class内部的所有需要同步的属性收集后放在ReqLayout里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！就是把Function的参数，收集后放在ReqLayout里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UActorChannel::SetChannelActor(AActor* InActor, ESetChannelActorFlags Flags)</t>
+  </si>
+  <si>
+    <t>Connection-&gt;AddActorChannel(Actor, this);</t>
+  </si>
+  <si>
+    <t>查找或创建对应的FObjectReplicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互绑定-Actor和Channel映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个Actor对象创建一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储在ActorChannel中：TMap&lt;UObject *, TSharedRef&lt;FObjectReplicator&gt;&gt; ReplicationMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSharedRef&lt;FObjectReplicator&gt;&amp; UActorChannel::FindOrCreateReplicator(UObject* Obj, bool* bOutCreated)</t>
+  </si>
+  <si>
+    <t>NewReplicator = Connection-&gt;CreateReplicatorForNewActorChannel(Obj);</t>
+  </si>
+  <si>
+    <t>// Start replicating with this replicator</t>
+  </si>
+  <si>
+    <t>NewRef-&gt;StartReplicating(this);</t>
+  </si>
+  <si>
+    <t>！！！这个很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FObjectReplicator&gt; UNetConnection::CreateReplicatorForNewActorChannel(UObject* Object)</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FObjectReplicator&gt; NewReplicator = MakeShareable(new FObjectReplicator());</t>
+  </si>
+  <si>
+    <t>NewReplicator-&gt;InitWithObject( Object, this, true );</t>
+  </si>
+  <si>
+    <t>创建并初始化，从OBJECT对应的CLASS的同步属性列表中初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FObjectReplicator::InitWithObject( UObject* InObject, UNetConnection * InConnection, bool bUseDefaultState )</t>
+  </si>
+  <si>
+    <t>RepLayout = Connection-&gt;Driver-&gt;GetObjectClassRepLayout( ObjectClass );</t>
+  </si>
+  <si>
+    <t>创建对象CLASS对应的ReqLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建ReplicationChangeListMgr等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FObjectReplicator::StartReplicating(class UActorChannel * InActorChannel)</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;class FReplicationChangelistMgr&gt; ChangelistMgr;</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FRepLayout&gt; RepLayout;</t>
+  </si>
+  <si>
+    <t>TUniquePtr&lt;FRepState&gt;  RepState;</t>
+  </si>
+  <si>
+    <t>TUniquePtr&lt;FRepState&gt; CheckpointRepState;</t>
+  </si>
+  <si>
+    <t>class ENGINE_API FObjectReplicator</t>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return NewReplicator;</t>
+  </si>
+  <si>
+    <t>在该函数里面创建FObjectReplicator对象，然后执行初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到对应CLASS的ReqLauout对象，找不到内部就创建一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储在UNetDriver的MAP里面，CLASS和ReqLayout的对象关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitRecentProperties( Source );</t>
+  </si>
+  <si>
+    <t>初始化属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FObjectReplicator::InitRecentProperties(uint8* Source)</t>
+  </si>
+  <si>
+    <t>RepState = LocalRepLayout.CreateRepState(Source, RepChangedPropertyTracker, Flags);</t>
+  </si>
+  <si>
+    <t>创建对应的ReqState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +1162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +1193,53 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC7254E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,10 +1261,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -518,6 +1599,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:R80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F53" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F54" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H56" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F62" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F65" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="H69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="H72" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="H75" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="H76" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="I78" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE8F96-3C0E-495B-ADAD-FA4EC1E25250}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F28F54-7D94-43E3-90C8-B95916059783}">
+  <dimension ref="A4:R41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7576B0C0-35B7-4612-973B-4612EF2311B5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -531,11 +2181,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79551FBA-2EA0-4B03-8FD1-72E622E12798}">
+  <dimension ref="B5:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119B0CC9-8395-43F1-B4AF-1E2CD95C80B8}">
+  <dimension ref="A4:O48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F983068-4305-4198-80BA-E27FA26625AB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,213 +2510,1048 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F28F54-7D94-43E3-90C8-B95916059783}">
-  <dimension ref="A4:R41"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C55E85-D50A-4B32-B663-68B41D47F5CA}">
+  <dimension ref="B4:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-  </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="C30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="R37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="R38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C3673-6F14-4DD7-85C8-3442D6D68170}">
+  <dimension ref="B3:O65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="E17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="E18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="E19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="D42" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="D44" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+      <c r="N46" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+      <c r="C47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+      <c r="D48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="D51" t="s">
+        <v>208</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="2"/>
+      <c r="C53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+      <c r="D54" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55" s="2"/>
+      <c r="D55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+      <c r="D56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="2"/>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+      <c r="D59" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+      <c r="D60" t="s">
+        <v>215</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9843638B-7D43-4BFD-A896-9199A9DCD532}">
+  <dimension ref="B2:S95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:X45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" t="s">
+        <v>193</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="N10" t="s">
+        <v>195</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" t="s">
+        <v>194</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M13" s="4"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="D25" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="D26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="D27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="N29" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="D31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="D37" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="D42" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D50" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D51" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="J61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J73" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J87" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J89" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J92" t="s">
+        <v>183</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="R94" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="R95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838FB41B-32AC-4BD0-9D2C-D6ECC733C2C6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C271F96E-E720-4F77-90D1-6AB265DF3EF8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_replication.xlsx
+++ b/doc/ue_replication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED411EC2-D02C-4D88-816C-959CC77A450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2174C29D-C4BC-4F8C-BFFD-35EAA6B46AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="879" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="921" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,10 @@
     <sheet name="UPackageMapClient " sheetId="8" r:id="rId5"/>
     <sheet name=" FObjectReplicator " sheetId="4" r:id="rId6"/>
     <sheet name="FRepLayout" sheetId="9" r:id="rId7"/>
-    <sheet name="ClassReps" sheetId="10" r:id="rId8"/>
-    <sheet name="FRepState" sheetId="11" r:id="rId9"/>
-    <sheet name="FRepChangelistState" sheetId="12" r:id="rId10"/>
-    <sheet name="以UCharacterMovementComponent举例" sheetId="3" r:id="rId11"/>
-    <sheet name="Bunch格式分析" sheetId="7" r:id="rId12"/>
+    <sheet name="FRepState" sheetId="11" r:id="rId8"/>
+    <sheet name="FRepChangelistState" sheetId="12" r:id="rId9"/>
+    <sheet name="以UCharacterMovementComponent举例" sheetId="3" r:id="rId10"/>
+    <sheet name="Bunch格式分析" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1941,21 +1940,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE8F96-3C0E-495B-ADAD-FA4EC1E25250}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F28F54-7D94-43E3-90C8-B95916059783}">
   <dimension ref="A4:R41"/>
   <sheetViews>
@@ -2166,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7576B0C0-35B7-4612-973B-4612EF2311B5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2755,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C3673-6F14-4DD7-85C8-3442D6D68170}">
   <dimension ref="B3:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3527,21 +3511,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838FB41B-32AC-4BD0-9D2C-D6ECC733C2C6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C271F96E-E720-4F77-90D1-6AB265DF3EF8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3554,4 +3523,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE8F96-3C0E-495B-ADAD-FA4EC1E25250}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_replication.xlsx
+++ b/doc/ue_replication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2174C29D-C4BC-4F8C-BFFD-35EAA6B46AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ABCE4C-7DA7-43EB-B80A-E34C474B7525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="921" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="921" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="FRepLayout" sheetId="9" r:id="rId7"/>
     <sheet name="FRepState" sheetId="11" r:id="rId8"/>
     <sheet name="FRepChangelistState" sheetId="12" r:id="rId9"/>
-    <sheet name="以UCharacterMovementComponent举例" sheetId="3" r:id="rId10"/>
+    <sheet name="属性同步" sheetId="13" r:id="rId10"/>
     <sheet name="Bunch格式分析" sheetId="7" r:id="rId11"/>
+    <sheet name="以UCharacterMovementComponent举例" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="387">
   <si>
     <t>数据发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,60 +1109,550 @@
     <t>TSharedPtr&lt;FRepLayout&gt; RepLayout;</t>
   </si>
   <si>
+    <t>TUniquePtr&lt;FRepState&gt; CheckpointRepState;</t>
+  </si>
+  <si>
+    <t>class ENGINE_API FObjectReplicator</t>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return NewReplicator;</t>
+  </si>
+  <si>
+    <t>在该函数里面创建FObjectReplicator对象，然后执行初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到对应CLASS的ReqLauout对象，找不到内部就创建一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储在UNetDriver的MAP里面，CLASS和ReqLayout的对象关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitRecentProperties( Source );</t>
+  </si>
+  <si>
+    <t>初始化属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FObjectReplicator::InitRecentProperties(uint8* Source)</t>
+  </si>
+  <si>
+    <t>RepState = LocalRepLayout.CreateRepState(Source, RepChangedPropertyTracker, Flags);</t>
+  </si>
+  <si>
+    <t>创建对应的ReqState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replication Graph 插件是一个用于多人游戏的网络复制系统，它的设计可以很好地适应大量玩家和复制Actor。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如，Epic自己的Fortnite Battle Royale从一开始就支持每场比赛100名玩家，包含大约50,000个复制的Actor。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准的网络复制策略（要求每个复制的Actor决定是否应该向每个连接的客户端发送更新）在这种情况下表现很差，并且会限制服务器的CPU。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像将Actor划分为交错的组，或者只是降低更新频率，这样的解决方案可能会缓解这个问题，但降低更新频率也会降低客户端体验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replication Graph消除了Actor单独评估每个连接的客户端的需要，同时在不牺牲客户端体验的情况下，解决了CPU性能问题。</t>
+  </si>
+  <si>
+    <t>/** Manages actor replication for an entire world / net driver */</t>
+  </si>
+  <si>
+    <t>UCLASS(transient, config=Engine)</t>
+  </si>
+  <si>
+    <t>class REPLICATIONGRAPH_API UReplicationGraph : public UReplicationDriver</t>
+  </si>
+  <si>
+    <t>继承自UReplicationDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(Abstract, customConstructor, transient, MinimalAPI, config=Engine)</t>
+  </si>
+  <si>
+    <t>class UNetDriver : public UObject, public FExec</t>
+  </si>
+  <si>
+    <t>UPROPERTY(transient)</t>
+  </si>
+  <si>
+    <t>UReplicationDriver* ReplicationDriver;</t>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！归属于NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UClass* ReplicationDriverClass;</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Config)</t>
+  </si>
+  <si>
+    <t>FString ReplicationDriverClassName;</t>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UNetDriver::InitBase(bool bInitAsClient, FNetworkNotify* InNotify, const FURL&amp; URL, bool bReuseAddressAndPort, FString&amp; Error)</t>
+  </si>
+  <si>
+    <t>if (!bInitAsClient)</t>
+  </si>
+  <si>
+    <t>ConnectionlessHandler.Reset(nullptr);</t>
+  </si>
+  <si>
+    <t>InitDestroyedStartupActors();</t>
+  </si>
+  <si>
+    <t>InitReplicationDriverClass();</t>
+  </si>
+  <si>
+    <t>SetReplicationDriver(UReplicationDriver::CreateReplicationDriver(this, URL, GetWorld()));</t>
+  </si>
+  <si>
+    <t>DDoS.Init(FMath::Clamp(NetServerMaxTickRate, 1, 1000));</t>
+  </si>
+  <si>
+    <t>DDoS.NotifySeverityEscalation.BindLambda(</t>
+  </si>
+  <si>
+    <t>[this](FString SeverityCategory)</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;BroadcastNetworkDDosSEscalation(this-&gt;GetWorld(), this, SeverityCategory);</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>！！！初始化ReplicationGraph的Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UNetDriver::InitReplicationDriverClass()</t>
+  </si>
+  <si>
+    <t>if (ReplicationDriverClass == nullptr &amp;&amp; !ReplicationDriverClassName.IsEmpty())</t>
+  </si>
+  <si>
+    <t>ReplicationDriverClass = LoadClass&lt;UReplicationDriver&gt;(nullptr, *ReplicationDriverClassName, nullptr, LOAD_None, nullptr);</t>
+  </si>
+  <si>
+    <t>if (ReplicationDriverClass == nullptr)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNet, Error,TEXT("Failed to load class '%s'"), *ReplicationDriverClassName);</t>
+  </si>
+  <si>
+    <t>return ReplicationDriverClass != nullptr;</t>
+  </si>
+  <si>
+    <t>就是通过名字LoadClass而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！创建ReplicationGraph对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (CreateReplicationDriverDelegate().IsBound())</t>
+  </si>
+  <si>
+    <t>return CreateReplicationDriverDelegate().Execute(NetDriver, URL, World);</t>
+  </si>
+  <si>
+    <t>// If we initialize the server map from the initial commandline, this will run before the "-execcmds" option has been handled. So explicitly check for force cmd line options</t>
+  </si>
+  <si>
+    <t>static bool FirstTime = true;</t>
+  </si>
+  <si>
+    <t>if (FirstTime)</t>
+  </si>
+  <si>
+    <t>FirstTime = false;</t>
+  </si>
+  <si>
+    <t>if (FParse::Param(FCommandLine::Get(), TEXT("RepDriverEnable")))</t>
+  </si>
+  <si>
+    <t>CVar_RepDriver_Enable = 1;</t>
+  </si>
+  <si>
+    <t>else if (FParse::Param(FCommandLine::Get(), TEXT("RepDriverDisable")))</t>
+  </si>
+  <si>
+    <t>CVar_RepDriver_Enable = 0;</t>
+  </si>
+  <si>
+    <t>if (CVar_RepDriver_Enable == 0)</t>
+  </si>
+  <si>
+    <t>return nullptr;</t>
+  </si>
+  <si>
+    <t>UClass* ReplicationDriverClass = NetDriver ? NetDriver-&gt;ReplicationDriverClass : nullptr;</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNet, Log, TEXT("ReplicationDriverClass is null! Not using ReplicationDriver."));</t>
+  </si>
+  <si>
+    <t>return NewObject&lt;UReplicationDriver&gt;(GetTransientPackage(), ReplicationDriverClass);</t>
+  </si>
+  <si>
+    <t>UReplicationDriver* UReplicationDriver::CreateReplicationDriver(UNetDriver* NetDriver, const FURL&amp; URL, UWorld* World)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建对应的UReplicationDriver，如果CLASS为空就不创建了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意这个Classname有两种设置方式，一种是ini配置，一种是代码设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplicationDriver.h</t>
+  </si>
+  <si>
+    <t>属性同步实现原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收处理流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性变更发送流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UActorChannel::ReceivedBunch( FInBunch &amp; Bunch )</t>
+  </si>
+  <si>
+    <t>// We can process this bunch now</t>
+  </si>
+  <si>
+    <t>ProcessBunch(Bunch);</t>
+  </si>
+  <si>
+    <t>第一步，如果当前Channel对应的Actor为NULL，则根据NETGUID等创建对应的Actor对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( Actor == NULL )</t>
+  </si>
+  <si>
+    <t>AActor* NewChannelActor = NULL;</t>
+  </si>
+  <si>
+    <t>bSpawnedNewActor = Connection-&gt;PackageMap-&gt;SerializeNewActor(Bunch, this, NewChannelActor);</t>
+  </si>
+  <si>
+    <t>ESetChannelActorFlags Flags = ESetChannelActorFlags::None;</t>
+  </si>
+  <si>
+    <t>if (GSkipReplicatorForDestructionInfos != 0 &amp;&amp; Bunch.bClose &amp;&amp; Bunch.AtEnd())</t>
+  </si>
+  <si>
+    <t>Flags |= ESetChannelActorFlags::SkipReplicatorCreation;</t>
+  </si>
+  <si>
+    <t>SetChannelActor(NewChannelActor, Flags);</t>
+  </si>
+  <si>
+    <t>NotifyActorChannelOpen(Actor, Bunch);</t>
+  </si>
+  <si>
+    <t>RepFlags.bNetInitial = true;</t>
+  </si>
+  <si>
+    <t>Actor-&gt;CustomTimeDilation = CustomTimeDilation;</t>
+  </si>
+  <si>
+    <t>第二步，不断读取Bunch，进行消息处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// ----------------------------------------------</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Read chunks of actor content</t>
+  </si>
+  <si>
+    <t>while ( !Bunch.AtEnd() &amp;&amp; Connection != NULL &amp;&amp; Connection-&gt;State != USOCK_Closed )</t>
+  </si>
+  <si>
+    <t>// Read the content block header and payload</t>
+  </si>
+  <si>
+    <t>UObject* RepObj = ReadContentBlockPayload( Bunch, Reader, bHasRepLayout );</t>
+  </si>
+  <si>
+    <t>TSharedRef&lt; FObjectReplicator &gt; &amp; Replicator = FindOrCreateReplicator( RepObj );</t>
+  </si>
+  <si>
+    <t>if ( !Replicator-&gt;ReceivedBunch( Reader, RepFlags, bHasRepLayout, bHasUnmapped ) )</t>
+  </si>
+  <si>
+    <t>for (auto RepComp = ReplicationMap.CreateIterator(); RepComp; ++RepComp)</t>
+  </si>
+  <si>
+    <t>TSharedRef&lt;FObjectReplicator&gt;&amp; ObjectReplicator = RepComp.Value();</t>
+  </si>
+  <si>
+    <t>if (ObjectReplicator-&gt;GetObject() == nullptr)</t>
+  </si>
+  <si>
+    <t>RepComp.RemoveCurrent();</t>
+  </si>
+  <si>
+    <t>continue;</t>
+  </si>
+  <si>
+    <t>ObjectReplicator-&gt;PostReceivedBunch();</t>
+  </si>
+  <si>
+    <t>属性变化后的回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FObjectReplicator::ReceivedBunch(FNetBitReader&amp; Bunch, const FReplicationFlags&amp; RepFlags, const bool bHasRepLayout, bool&amp; bOutHasUnmapped)</t>
+  </si>
+  <si>
+    <t>const FRepLayout&amp; LocalRepLayout = *RepLayout;</t>
+  </si>
+  <si>
+    <t>if (!LocalRepLayout.ReceiveProperties(OwningChannel, ObjectClass, RepState-&gt;GetReceivingRepState(), Object, Bunch, bLocalHasUnmapped, bGuidsChanged, ReceivePropFlags))</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogRep, Error, TEXT( "RepLayout-&gt;ReceiveProperties FAILED: %s" ), *Object-&gt;GetFullName());</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>bool FRepLayout::ReceiveProperties(UActorChannel* OwningChannel,UClass* InObjectClass,FReceivingRepState* RESTRICT RepState,UObject* Object,FNetBitReader&amp; InBunch,bool&amp; bOutHasUnmapped,bool&amp; bOutGuidsChanged,const EReceivePropertiesFlags ReceiveFlags) const</t>
+  </si>
+  <si>
+    <t>FRepObjectDataBuffer Data(Object);</t>
+  </si>
+  <si>
+    <t>！！！注意这个地方，是将传入的Object当做Data，后面会在这个地址上加上偏移值，获取变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadPropertyHandle(Params);</t>
+  </si>
+  <si>
+    <t>if (ReceiveProperties_r(Params, StackParams))</t>
+  </si>
+  <si>
+    <t>构造Params和StackParams，StackParams的Data就是上面这个Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static bool ReceiveProperties_r(FReceivePropertiesSharedParams&amp; Params, FReceivePropertiesStackParams&amp; StackParams)</t>
+  </si>
+  <si>
+    <t>// Go ahead and receive the property.</t>
+  </si>
+  <si>
+    <t>if (ReceivePropertyHelper(</t>
+  </si>
+  <si>
+    <t>Params.Bunch,</t>
+  </si>
+  <si>
+    <t>StackParams.GuidReferences,</t>
+  </si>
+  <si>
+    <t>StackParams.ArrayElementOffset,</t>
+  </si>
+  <si>
+    <t>StackParams.ShadowData,</t>
+  </si>
+  <si>
+    <t>StackParams.ObjectData,</t>
+  </si>
+  <si>
+    <t>StackParams.RepNotifies,</t>
+  </si>
+  <si>
+    <t>Params.Parents,</t>
+  </si>
+  <si>
+    <t>Params.Cmds,</t>
+  </si>
+  <si>
+    <t>CmdIndex,</t>
+  </si>
+  <si>
+    <t>Params.bDoChecksum,</t>
+  </si>
+  <si>
+    <t>Params.bOutGuidsChanged,</t>
+  </si>
+  <si>
+    <t>Params.bSkipRoleSwap,</t>
+  </si>
+  <si>
+    <t>Params.NetSerializeLayouts,</t>
+  </si>
+  <si>
+    <t>Params.OwningObject))</t>
+  </si>
+  <si>
+    <t>Params.bOutHasUnmapped = true;</t>
+  </si>
+  <si>
+    <t>static bool ReceivePropertyHelper(FNetBitReader&amp; Bunch, FGuidReferencesMap* GuidReferencesMap,const int32 ElementOffset, FRepShadowDataBuffer ShadowData,FRepObjectDataBuffer Data,TArray&lt;FProperty*&gt;* RepNotifies,const TArray&lt;FRepParentCmd&gt;&amp; Parents,const TArray&lt;FRepLayoutCmd&gt;&amp; Cmds,const int32 CmdIndex,const bool bDoChecksum,bool&amp; bOutGuidsChanged,const bool bSkipSwapRoles,const TMap&lt;FRepLayoutCmd*, TArray&lt;FRepLayoutCmd&gt;&gt;&amp; NetSerializeLayouts,const UObject* OwningObject)</t>
+  </si>
+  <si>
+    <t>具体的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举个例子：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是BYTE Property的话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data就是对象指针，加上偏移就是类成员变量的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmd.Property-&gt;NetSerializeItem(Bunch, Bunch.PackageMap, Data + SwappedCmd);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetSerializeItem就是从Bunch上读取数据后赋值给后面算出来的成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过ActorChannel找到 FObjectReplicator ，在找到对应的FReqLayout，后进行赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：先赋值在进行变更回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！收到属性了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UActorChannel::ProcessBunch( FInBunch &amp; Bunch )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步需要的变量都在其内部存储，最终会用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TUniquePtr&lt;FRepState&gt;  RepState;</t>
-  </si>
-  <si>
-    <t>TUniquePtr&lt;FRepState&gt; CheckpointRepState;</t>
-  </si>
-  <si>
-    <t>class ENGINE_API FObjectReplicator</t>
-  </si>
-  <si>
-    <t>成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return NewReplicator;</t>
-  </si>
-  <si>
-    <t>在该函数里面创建FObjectReplicator对象，然后执行初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到对应CLASS的ReqLauout对象，找不到内部就创建一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储在UNetDriver的MAP里面，CLASS和ReqLayout的对象关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitRecentProperties( Source );</t>
-  </si>
-  <si>
-    <t>初始化属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FObjectReplicator::InitRecentProperties(uint8* Source)</t>
-  </si>
-  <si>
-    <t>RepState = LocalRepLayout.CreateRepState(Source, RepChangedPropertyTracker, Flags);</t>
-  </si>
-  <si>
-    <t>创建对应的ReqState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Replication State that is unique Per Object Per Net Connection. */</t>
+  </si>
+  <si>
+    <t>class FRepState : public FNoncopyable</t>
+  </si>
+  <si>
+    <t>/** May be null on connections that don't receive properties. */</t>
+  </si>
+  <si>
+    <t>TUniquePtr&lt;FReceivingRepState&gt; ReceivingRepState;</t>
+  </si>
+  <si>
+    <t>/** May be null on connections that don't send properties. */</t>
+  </si>
+  <si>
+    <t>TUniquePtr&lt;FSendingRepState&gt; SendingRepState;</t>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Replication State needed to track received properties. */</t>
+  </si>
+  <si>
+    <t>class FReceivingRepState : public FNoncopyable</t>
+  </si>
+  <si>
+    <t>/** Latest state of all property data. Only valid on clients. */</t>
+  </si>
+  <si>
+    <t>FRepStateStaticBuffer StaticBuffer;</t>
+  </si>
+  <si>
+    <t>/** Map of Absolute Property Offset to GUID Reference for properties. */</t>
+  </si>
+  <si>
+    <t>FGuidReferencesMap GuidReferencesMap;</t>
+  </si>
+  <si>
+    <t>/** List of properties that have RepNotifies that we will need to call on Clients. */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FProperty*&gt; RepNotifies;</t>
+  </si>
+  <si>
+    <t>客户端使用，属性变更后的通知回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Replication State that is only needed when sending properties. */</t>
+  </si>
+  <si>
+    <t>class FSendingRepState : public FNoncopyable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,6 +1730,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1257,10 +1780,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1269,9 +1793,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1940,213 +2468,511 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F28F54-7D94-43E3-90C8-B95916059783}">
-  <dimension ref="A4:R41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15989B7D-D920-4145-98A1-BAC76287FCD0}">
+  <dimension ref="B2:U114"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-  </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E52" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
+    <row r="71" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D77" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="R37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="R38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D107" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D110" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D111" s="2"/>
+      <c r="E111" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D112" s="2"/>
+      <c r="E112" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D113" s="2"/>
+      <c r="E113" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2164,12 +2990,223 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F28F54-7D94-43E3-90C8-B95916059783}">
+  <dimension ref="A4:R41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79551FBA-2EA0-4B03-8FD1-72E622E12798}">
   <dimension ref="B5:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2481,15 +3518,434 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F983068-4305-4198-80BA-E27FA26625AB}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:Q100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>259</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.epicgames.com/fortnite" xr:uid="{1B930883-49A9-41BC-8F86-7511340F88FB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2739,68 +4195,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C3673-6F14-4DD7-85C8-3442D6D68170}">
   <dimension ref="B3:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" t="s">
         <v>6</v>
@@ -2821,7 +4280,7 @@
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
@@ -2836,7 +4295,7 @@
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
@@ -2846,10 +4305,10 @@
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
@@ -2859,27 +4318,27 @@
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="G30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
@@ -3512,14 +4971,113 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C271F96E-E720-4F77-90D1-6AB265DF3EF8}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>382</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/ue_replication.xlsx
+++ b/doc/ue_replication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ABCE4C-7DA7-43EB-B80A-E34C474B7525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8331AC91-0997-4C29-BD3B-B215032B016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="921" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="397">
   <si>
     <t>数据发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1646,6 +1646,39 @@
   </si>
   <si>
     <t>class FSendingRepState : public FNoncopyable</t>
+  </si>
+  <si>
+    <t>收到属性同步和发送属性同步都依赖这个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64 UActorChannel::ReplicateActor()</t>
+  </si>
+  <si>
+    <t>// The Actor</t>
+  </si>
+  <si>
+    <t>UE_NET_TRACE_OBJECT_SCOPE(ActorReplicator-&gt;ObjectNetGUID, Bunch, GetTraceCollector(Bunch), ENetTraceVerbosity::Trace);</t>
+  </si>
+  <si>
+    <t>WroteSomethingImportant |= ActorReplicator-&gt;ReplicateProperties(Bunch, RepFlags);</t>
+  </si>
+  <si>
+    <t>// The SubObjects</t>
+  </si>
+  <si>
+    <t>WroteSomethingImportant |= Actor-&gt;ReplicateSubobjects(this, &amp;Bunch, &amp;RepFlags);</t>
+  </si>
+  <si>
+    <t>FPacketIdRange PacketRange = SendBunch( &amp;Bunch, 1 );</t>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意这个SubObject是？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2469,20 +2502,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15989B7D-D920-4145-98A1-BAC76287FCD0}">
-  <dimension ref="B2:U114"/>
+  <dimension ref="B2:U117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>363</v>
       </c>
@@ -2490,465 +2523,476 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>364</v>
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>296</v>
       </c>
     </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>393</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>366</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="1" t="s">
-        <v>300</v>
+      <c r="D23" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>304</v>
+      <c r="E29" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>305</v>
+      <c r="E30" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
-        <v>306</v>
+      <c r="D32" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>8</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>307</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>308</v>
+      <c r="E35" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D39" s="1" t="s">
-        <v>311</v>
+      <c r="D39" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>313</v>
-      </c>
-      <c r="E41" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>312</v>
+      <c r="D42" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E45" t="s">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E46" t="s">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="1" t="s">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E51" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="1" t="s">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E55" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F55" t="s">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F56" t="s">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F57" t="s">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G58" t="s">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G59" t="s">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F60" t="s">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F62" t="s">
+    <row r="65" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E63" t="s">
+    <row r="66" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
+    <row r="67" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
+    <row r="69" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="68" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
+    <row r="71" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D69" s="1" t="s">
+    <row r="72" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="U69" s="1" t="s">
+      <c r="U72" s="1" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="70" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E71" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="72" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E72" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="73" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
+    <row r="78" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="77" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D77" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="78" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="80" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D83" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D82" t="s">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E88" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E89" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E90" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E93" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E94" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E95" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E96" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E97" t="s">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E98" t="s">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E99" t="s">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E100" t="s">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E101" t="s">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D102" t="s">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E103" t="s">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D104" t="s">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C106" t="s">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="107" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D107" s="1" t="s">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D108" t="s">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="110" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D110" s="2" t="s">
+    <row r="113" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D113" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D111" s="2"/>
-      <c r="E111" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-    </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D112" s="2"/>
-      <c r="E112" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-    </row>
-    <row r="113" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D113" s="2"/>
-      <c r="E113" s="2" t="s">
-        <v>362</v>
-      </c>
+      <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -2960,7 +3004,9 @@
     </row>
     <row r="114" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -2969,6 +3015,46 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D116" s="2"/>
+      <c r="E116" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4492,10 +4578,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9843638B-7D43-4BFD-A896-9199A9DCD532}">
-  <dimension ref="B2:S95"/>
+  <dimension ref="B2:S97"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:X45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4504,6 +4590,17 @@
       <c r="B2" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -4511,454 +4608,460 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C8" s="2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="N8" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="N10" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N11" t="s">
         <v>193</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="N10" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="N12" t="s">
         <v>195</v>
       </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C11" s="2">
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N14" t="s">
         <v>194</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M13" s="4"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M15" s="4"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D18" s="1" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="D25" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-      <c r="D26" t="s">
-        <v>200</v>
+      <c r="C26" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="D27" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="D28" t="s">
-        <v>145</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="N29" s="6" t="s">
-        <v>204</v>
+      <c r="D29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="C30" t="s">
-        <v>205</v>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="D31" t="s">
-        <v>206</v>
+      <c r="N31" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>207</v>
+      <c r="C32" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>218</v>
+      <c r="D33" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-      <c r="D34" t="s">
-        <v>208</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>209</v>
+      <c r="D34" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
-      <c r="C36" t="s">
-        <v>210</v>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="D37" s="1" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
-      <c r="D38" t="s">
-        <v>211</v>
+      <c r="C38" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="D39" t="s">
-        <v>212</v>
+      <c r="D39" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="C41" t="s">
-        <v>214</v>
+      <c r="D41" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
-      <c r="D42" s="1" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-      <c r="D43" t="s">
-        <v>215</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>217</v>
+      <c r="C43" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
+      <c r="D44" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
+      <c r="D45" t="s">
+        <v>215</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>152</v>
       </c>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
         <v>153</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D50" s="2" t="s">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D52" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D51" s="2" t="s">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D53" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="I60" t="s">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="J61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="J62" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="J63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="I64" t="s">
-        <v>6</v>
+      <c r="J64" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="9:19" x14ac:dyDescent="0.2">
       <c r="J65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="9:19" x14ac:dyDescent="0.2">
-      <c r="J66" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>169</v>
+      <c r="I66" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="9:19" x14ac:dyDescent="0.2">
       <c r="J67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="9:19" x14ac:dyDescent="0.2">
-      <c r="I68" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="70" spans="9:19" x14ac:dyDescent="0.2">
       <c r="I70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="9:19" x14ac:dyDescent="0.2">
-      <c r="J71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="9:19" x14ac:dyDescent="0.2">
-      <c r="J72" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="73" spans="9:19" x14ac:dyDescent="0.2">
       <c r="J73" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="9:19" x14ac:dyDescent="0.2">
-      <c r="I74" t="s">
-        <v>6</v>
+      <c r="J74" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="9:19" x14ac:dyDescent="0.2">
       <c r="J75" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J77" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="9:19" x14ac:dyDescent="0.2">
-      <c r="J76" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="78" spans="9:19" x14ac:dyDescent="0.2">
       <c r="J78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="J80" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="79" spans="9:19" x14ac:dyDescent="0.2">
-      <c r="J79" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="81" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J83" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="K83" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="84" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J84" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="K85" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J86" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J87" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J88" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J89" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J91" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J91" s="2" t="s">
+    <row r="93" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J93" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="R91" s="2" t="s">
+      <c r="R93" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J92" t="s">
+    <row r="94" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J94" t="s">
         <v>183</v>
       </c>
-      <c r="R92" s="2" t="s">
+      <c r="R94" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R94" t="s">
+    <row r="96" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="R96" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="R95" t="s">
+    <row r="97" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R97" t="s">
         <v>185</v>
       </c>
     </row>

--- a/doc/ue_replication.xlsx
+++ b/doc/ue_replication.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8331AC91-0997-4C29-BD3B-B215032B016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="921" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="921" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="420">
   <si>
     <t>数据发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1680,11 +1679,83 @@
     <t>！！！注意这个SubObject是？？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器调用一个Channel的Close，会同步给客户端，客户端删除相关的Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64 UActorChannel::Close(EChannelCloseReason Reason)</t>
+  </si>
+  <si>
+    <t>int64 UChannel::Close(EChannelCloseReason Reason)</t>
+  </si>
+  <si>
+    <t>if ( !Closing &amp;&amp; ( Connection-&gt;State == USOCK_Open || Connection-&gt;State == USOCK_Pending ) &amp;&amp; !SentClosingBunch)</t>
+  </si>
+  <si>
+    <t>if ( ChIndex == 0 )</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNet, Log, TEXT("UChannel::Close: Sending CloseBunch. ChIndex == 0. Name: %s"), *Describe());</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNetDormancy, Verbose, TEXT("UChannel::Close: Sending CloseBunch. Reason: %s, %s"), LexToString(Reason), *Describe());</t>
+  </si>
+  <si>
+    <t>// Send a close notify, and wait for ack.</t>
+  </si>
+  <si>
+    <t>PacketHandler* Handler = Connection-&gt;Handler.Get();</t>
+  </si>
+  <si>
+    <t>if ((Handler == nullptr || Handler-&gt;IsFullyInitialized()) &amp;&amp; Connection-&gt;HasReceivedClientPacket())</t>
+  </si>
+  <si>
+    <t>FOutBunch CloseBunch( this, 1 );</t>
+  </si>
+  <si>
+    <t>SentClosingBunch = 1; //in case this send ends up failing and trying to reach back to close the connection, don't allow recursion.</t>
+  </si>
+  <si>
+    <t>#if !(UE_BUILD_SHIPPING || UE_BUILD_TEST)</t>
+  </si>
+  <si>
+    <t>CloseBunch.DebugString = FString::Printf(TEXT("%.2f Close: %s"), Connection-&gt;Driver-&gt;GetElapsedTime(), *Describe());</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>check(!CloseBunch.IsError());</t>
+  </si>
+  <si>
+    <t>check(CloseBunch.bClose);</t>
+  </si>
+  <si>
+    <t>CloseBunch.bReliable = 1;</t>
+  </si>
+  <si>
+    <t>CloseBunch.CloseReason = Reason;</t>
+  </si>
+  <si>
+    <t>SendBunch( &amp;CloseBunch, 0 );</t>
+  </si>
+  <si>
+    <t>NumBits = CloseBunch.GetNumBits();</t>
+  </si>
+  <si>
+    <t>给对应的Connection对端，发送一个可靠的关闭消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2158,11 +2229,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:R80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="O86" sqref="O86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2223,12 +2294,14 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2501,10 +2574,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15989B7D-D920-4145-98A1-BAC76287FCD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -3063,7 +3136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7576B0C0-35B7-4612-973B-4612EF2311B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3077,7 +3150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F28F54-7D94-43E3-90C8-B95916059783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:R41"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -3288,7 +3361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79551FBA-2EA0-4B03-8FD1-72E622E12798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3360,11 +3433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119B0CC9-8395-43F1-B4AF-1E2CD95C80B8}">
-  <dimension ref="A4:O48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:O87"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3596,14 +3669,158 @@
         <v>79</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F983068-4305-4198-80BA-E27FA26625AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q100"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4030,14 +4247,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.epicgames.com/fortnite" xr:uid="{1B930883-49A9-41BC-8F86-7511340F88FB}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.epicgames.com/fortnite"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C55E85-D50A-4B32-B663-68B41D47F5CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4278,7 +4495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306C3673-6F14-4DD7-85C8-3442D6D68170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4577,7 +4794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9843638B-7D43-4BFD-A896-9199A9DCD532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5073,7 +5290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C271F96E-E720-4F77-90D1-6AB265DF3EF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5187,7 +5404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE8F96-3C0E-495B-ADAD-FA4EC1E25250}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
